--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3343BC79-A2D5-4CCA-B22B-FBF7918A30EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F3D708-5BCD-4DD6-8E87-7FD5069B88C7}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{3343BC79-A2D5-4CCA-B22B-FBF7918A30EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62DFB2F7-359B-4F45-8E2D-2EB0E80D4125}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BCE16E2-705E-4E2B-A759-3BDCB34CE93F}"/>
+    <workbookView minimized="1" xWindow="-5688" yWindow="204" windowWidth="17280" windowHeight="8880" xr2:uid="{2BCE16E2-705E-4E2B-A759-3BDCB34CE93F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,24 @@
     <t>Report</t>
   </si>
   <si>
+    <t xml:space="preserve">                    ☑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               ☑ D</t>
+  </si>
+  <si>
+    <t>☑ = milestone     D = deliverable</t>
+  </si>
+  <si>
+    <t>Implementation - Correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ☑ ☑ D </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">           </t>
     </r>
@@ -112,41 +130,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
       <t>☑ D</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">                    ☑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               ☑ D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ☑ D ☑</t>
-  </si>
-  <si>
-    <t>☑ = milestone     D = deliverable</t>
-  </si>
-  <si>
-    <t>Implementation - Correlation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,11 +197,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +222,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AE66D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -333,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -357,8 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,6 +408,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1AE66D"/>
+      <color rgb="FF19E71E"/>
+      <color rgb="FF10F025"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,6 +426,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E25DE3-BD96-4466-B9EE-ADB655D59988}">
   <dimension ref="C3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +762,7 @@
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>0</v>
@@ -751,8 +806,8 @@
       <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
+      <c r="D4" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
       <c r="O4" s="6"/>
@@ -761,8 +816,8 @@
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1"/>
       <c r="O5" s="6"/>
@@ -772,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1"/>
       <c r="O6" s="6"/>
@@ -785,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -796,10 +851,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -811,22 +866,20 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+        <v>24</v>
+      </c>
       <c r="K10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1"/>
       <c r="O10" s="6"/>
@@ -836,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1"/>
       <c r="O11" s="6"/>
@@ -847,7 +900,7 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="7"/>
@@ -868,7 +921,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_4138DECD3F55FE91DCC30D6AF07267CCB4F88CFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BABAD48D-EC68-4B49-8F72-6C8BD744DBEE}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_4138DECD3F55FE91DCC30D6AF07267CCB4F88CFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7790595D-89DE-4E3E-BBB7-AA2AB955D15F}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -466,7 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -494,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,6 +518,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,7 +815,7 @@
   <dimension ref="C1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +871,7 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -869,10 +881,10 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
@@ -880,11 +892,11 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -894,11 +906,11 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="13"/>
+      <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="2"/>
@@ -906,10 +918,10 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
@@ -921,56 +933,56 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="K10" s="15" t="s">
+      <c r="D10" s="13"/>
+      <c r="K10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="L11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="5"/>
@@ -984,18 +996,15 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="12"/>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="14"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_4138DECD3F55FE91DCC30D6AF07267CCB4F88CFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7790595D-89DE-4E3E-BBB7-AA2AB955D15F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_4138DECD3F55FE91DCC30D6AF07267CCB4F88CFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12A485F-C995-4522-9BC6-DBF39D1406AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -437,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -499,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +806,7 @@
   <dimension ref="C1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="2"/>
@@ -922,7 +913,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="4" t="s">

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_4138DECD3F55FE91DCC30D6AF07267CCB4F88CFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12A485F-C995-4522-9BC6-DBF39D1406AF}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_7AA85EDAAD95766C613252C9EB4A8FCE9D4E8CB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF898A6-5C7D-4B45-983F-B301FA9ED432}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,6 @@
     <t>☑ = milestone     D = deliverable</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
     <t>Initial plan</t>
   </si>
   <si>
@@ -92,6 +56,42 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>Week 8 (17/03)</t>
+  </si>
+  <si>
+    <t>Week 7 (10/03)</t>
+  </si>
+  <si>
+    <t>Week 6 (03/03)</t>
+  </si>
+  <si>
+    <t>Week 5 (24/02)</t>
+  </si>
+  <si>
+    <t>Week 4 (17/02)</t>
+  </si>
+  <si>
+    <t>Week 3 (10/02)</t>
+  </si>
+  <si>
+    <t>Week 2 (03/02)</t>
+  </si>
+  <si>
+    <t>Week 1 (27/02)</t>
+  </si>
+  <si>
+    <t>Week 9 (24/03)</t>
+  </si>
+  <si>
+    <t>Week 10 (31/03)</t>
+  </si>
+  <si>
+    <t>Week 11 (07/04)</t>
+  </si>
+  <si>
+    <t>Week 12 (14/03)</t>
   </si>
   <si>
     <r>
@@ -104,7 +104,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve">         </t>
     </r>
     <r>
       <rPr>
@@ -126,26 +126,38 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                      ☑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ☑ ☑ D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   ☑ D</t>
+    <t xml:space="preserve">                               ☑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     ☑ ☑ D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ☑ D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -171,19 +183,23 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B7D23"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,14 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -212,6 +222,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -220,35 +332,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFC6C6C6"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -256,17 +376,8 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,15 +391,6 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -298,132 +400,13 @@
         <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,68 +414,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,197 +783,206 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="3:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="D8" s="9"/>
+      <c r="H8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="K10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="D11" s="9"/>
+      <c r="L11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="D12" s="9"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="H8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="K10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="13"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
